--- a/(예시) 기숙사_방_정보.xlsx
+++ b/(예시) 기숙사_방_정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\근로\기숙사\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DmuDomitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB3BC84-64C3-4292-8ECE-62487CCA77B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD1ACF4-443A-4D2A-A7A7-F8CBB84D0DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="310" windowWidth="16490" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="81">
   <si>
-    <t>Room_No</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -276,6 +273,10 @@
   </si>
   <si>
     <t>room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -682,9 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -693,33 +692,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="3">
         <v>1070000</v>
@@ -727,16 +726,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3">
         <v>1070000</v>
@@ -744,16 +743,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3">
         <v>1070000</v>
@@ -761,16 +760,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3">
         <v>1070000</v>
@@ -778,16 +777,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="3">
         <v>1070000</v>
@@ -795,16 +794,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="3">
         <v>1070000</v>
@@ -812,16 +811,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="3">
         <v>1070000</v>
@@ -829,16 +828,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3">
         <v>1070000</v>
@@ -846,16 +845,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <v>1070000</v>
@@ -863,16 +862,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3">
         <v>1070000</v>
@@ -880,16 +879,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3">
         <v>1070000</v>
@@ -897,16 +896,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3">
         <v>1070000</v>
@@ -914,16 +913,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3">
         <v>1070000</v>
@@ -931,16 +930,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3">
         <v>1070000</v>
@@ -948,16 +947,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3">
         <v>1070000</v>
@@ -965,16 +964,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="3">
         <v>1070000</v>
@@ -982,16 +981,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3">
         <v>1250000</v>
@@ -999,16 +998,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="3">
         <v>1250000</v>
@@ -1016,16 +1015,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3">
         <v>1250000</v>
@@ -1033,16 +1032,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3">
         <v>1250000</v>
@@ -1050,16 +1049,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="3">
         <v>1250000</v>
@@ -1067,16 +1066,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="3">
         <v>1250000</v>
@@ -1084,16 +1083,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="3">
         <v>1250000</v>
@@ -1101,16 +1100,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="3">
         <v>1250000</v>
@@ -1118,16 +1117,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="3">
         <v>1250000</v>
@@ -1135,16 +1134,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="3">
         <v>1250000</v>
@@ -1152,16 +1151,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3">
         <v>1250000</v>
@@ -1169,16 +1168,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="3">
         <v>1250000</v>
@@ -1186,16 +1185,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="3">
         <v>1250000</v>
@@ -1203,16 +1202,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="3">
         <v>1250000</v>
@@ -1220,16 +1219,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="3">
         <v>1250000</v>
@@ -1237,16 +1236,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="3">
         <v>1250000</v>
@@ -1254,16 +1253,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="3">
         <v>1150000</v>
@@ -1271,16 +1270,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="3">
         <v>1150000</v>
@@ -1288,16 +1287,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="3">
         <v>1150000</v>
@@ -1305,16 +1304,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="3">
         <v>1150000</v>
@@ -1322,16 +1321,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="3">
         <v>1150000</v>
@@ -1339,16 +1338,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="3">
         <v>1150000</v>
@@ -1356,16 +1355,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="3">
         <v>1150000</v>
@@ -1373,16 +1372,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="3">
         <v>1150000</v>
@@ -1390,16 +1389,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="3">
         <v>850000</v>
@@ -1407,16 +1406,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="3">
         <v>850000</v>
@@ -1424,16 +1423,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" s="3">
         <v>850000</v>
@@ -1441,16 +1440,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" s="3">
         <v>850000</v>
@@ -1458,16 +1457,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="3">
         <v>850000</v>
@@ -1475,16 +1474,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="3">
         <v>850000</v>
@@ -1492,16 +1491,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="3">
         <v>850000</v>
@@ -1509,16 +1508,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49" s="3">
         <v>850000</v>
@@ -1526,16 +1525,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="3">
         <v>740000</v>
@@ -1543,16 +1542,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" s="3">
         <v>740000</v>
@@ -1560,16 +1559,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E52" s="3">
         <v>740000</v>
@@ -1577,16 +1576,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" s="3">
         <v>740000</v>
@@ -1594,16 +1593,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="3">
         <v>740000</v>
@@ -1611,16 +1610,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E55" s="3">
         <v>740000</v>
@@ -1628,16 +1627,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E56" s="3">
         <v>740000</v>
@@ -1645,16 +1644,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" s="3">
         <v>740000</v>
@@ -1662,16 +1661,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E58" s="3">
         <v>740000</v>
@@ -1679,16 +1678,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E59" s="3">
         <v>740000</v>
@@ -1696,16 +1695,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60" s="3">
         <v>740000</v>
@@ -1713,16 +1712,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E61" s="3">
         <v>740000</v>
@@ -1730,16 +1729,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E62" s="3">
         <v>740000</v>
@@ -1747,16 +1746,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E63" s="3">
         <v>740000</v>
@@ -1764,16 +1763,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E64" s="3">
         <v>740000</v>
@@ -1781,16 +1780,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E65" s="3">
         <v>740000</v>
@@ -1798,16 +1797,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E66" s="3">
         <v>1680000</v>
@@ -1815,16 +1814,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E67" s="3">
         <v>1680000</v>
@@ -1832,16 +1831,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E68" s="3">
         <v>1580000</v>
